--- a/databases/activity_log.xlsx
+++ b/databases/activity_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,6 +471,28 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>08/05/23</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>09:47:57</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/databases/activity_log.xlsx
+++ b/databases/activity_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,7 +422,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="7.199999999999999" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="61.2" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
   </cols>
@@ -493,6 +493,908 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>08/05/23</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10:10:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>08/05/23</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10:11:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>08/05/23</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10:13:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>08/05/23</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10:14:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>08/05/23</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10:20:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>08/05/23</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10:22:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>aum</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>08/05/23</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10:23:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>aum</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>08/05/23</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10:31:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>aum</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>08/05/23</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10:32:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>aum</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Added item barcode no: 123</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>08/05/23</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10:33:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>aum</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>08/05/23</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10:36:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>aum</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>08/05/23</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10:38:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>aum</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>LOG-OUT</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>08/05/23</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10:38:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>aum</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>08/05/23</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10:38:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>aum</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>08/05/23</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10:48:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>aum</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>08/05/23</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11:00:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>aum</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Added item barcode no: 912345671</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>08/05/23</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11:08:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>aum</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Added item barcode no: 912345672</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>08/05/23</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11:13:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>aum</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Added item barcode no: 912345673</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>08/05/23</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11:16:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>aum</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Added item barcode no: 912345674</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>08/05/23</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11:21:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>aum</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Added item barcode no: 912345675</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>08/05/23</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11:24:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>aum</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Added item barcode no: 912345676</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>08/05/23</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11:27:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>aum</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Item checked out to FSL barcode no:912345675</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>08/05/23</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11:28:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>aum</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Item checked in from FSL barcode no:912345675</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>08/05/23</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11:29:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>aum</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>LOG-OUT</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>08/05/23</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>11:31:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>aum</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>08/05/23</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11:31:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>aum</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Added item barcode no: 912345677</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>08/05/23</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>11:49:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>aum</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Item checked out to FSL barcode no:912345677</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>08/05/23</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>11:53:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>aum</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Item checked in from FSL barcode no:912345677</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>08/05/23</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11:56:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>08/05/23</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>12:00:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Added item barcode no: 90123456789</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>08/05/23</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>12:05:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Item checked out to FSL barcode no:90123456789</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>08/05/23</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>12:07:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Item checked in from FSL barcode no:90123456789</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>08/05/23</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>12:09:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>08/05/23</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>12:11:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Item checked out to Court barcode no:90123456789</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>08/05/23</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>12:12:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Item checked in from Court barcode no:90123456789</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>08/05/23</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>12:13:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>LOG-OUT</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>08/05/23</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>12:25:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>aum</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>08/05/23</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>12:44:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>aum</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Added item barcode no: 123</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>08/05/23</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>12:46:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>08/05/23</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>21:31:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>08/16/23</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>12:25:29</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
